--- a/src/test/java/TestData.xlsx
+++ b/src/test/java/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Private\Desktop\FinalProject\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97FE4BA-A725-4881-A349-C4171230CE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED3A05-53A3-4880-8F2E-1A2F07CAF3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>valid username</t>
   </si>
@@ -43,9 +43,6 @@
     <t>sada123</t>
   </si>
   <si>
-    <t>sada</t>
-  </si>
-  <si>
     <t>locked_out_user</t>
   </si>
   <si>
@@ -77,13 +74,25 @@
   </si>
   <si>
     <t>41ada21000</t>
+  </si>
+  <si>
+    <t>valid password / invalid username</t>
+  </si>
+  <si>
+    <t>valid username / invalid password</t>
+  </si>
+  <si>
+    <t>asdds</t>
+  </si>
+  <si>
+    <t>sad11111111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -100,6 +109,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -123,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -170,11 +186,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,6 +229,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +454,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -416,9 +465,10 @@
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
     <col min="4" max="5" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -443,70 +493,77 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
-        <v>123</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>12</v>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>16</v>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/TestData.xlsx
+++ b/src/test/java/TestData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Private\Desktop\FinalProject\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED3A05-53A3-4880-8F2E-1A2F07CAF3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89901F4-050D-4397-B026-1883ED9C9CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>valid username</t>
   </si>
@@ -86,6 +87,21 @@
   </si>
   <si>
     <t>sad11111111</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Kostantin</t>
+  </si>
+  <si>
+    <t>Bozovic</t>
+  </si>
+  <si>
+    <t>Zip code</t>
   </si>
 </sst>
 </file>
@@ -119,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +154,14 @@
         <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -212,11 +234,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,13 +266,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +499,7 @@
   </sheetPr>
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -566,4 +609,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4381DF-4D76-4A44-8B65-E9AC78AAA0F2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="12">
+        <v>11000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>